--- a/src/test/resources/TestData/Team7-TestData.xlsx
+++ b/src/test/resources/TestData/Team7-TestData.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f771015cb644ad2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f771015cb644ad2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{7DA9E674-27B2-4D9B-BEB9-68EE40E0CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE3EC121-5C82-41D9-AD19-8E5E39D73451}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{5913A8A9-60B2-44D1-8532-594681FEDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9F2B23-BDCF-4DDD-9285-9BBBFDAFA70B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="NullUserNmae" sheetId="2" r:id="rId2"/>
-    <sheet name="NullPassword" sheetId="3" r:id="rId3"/>
-    <sheet name="LoginPageFields" sheetId="4" r:id="rId4"/>
+    <sheet name="Batch" sheetId="2" r:id="rId2"/>
+    <sheet name="NullPassword" sheetId="5" r:id="rId3"/>
+    <sheet name="EditBatch" sheetId="3" r:id="rId4"/>
+    <sheet name="NullUserNmae" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+  <si>
+    <t>TestCase</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -31,7 +40,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>TestCase</t>
+    <t>ErrorMessage</t>
   </si>
   <si>
     <t>LP01</t>
@@ -43,7 +52,7 @@
     <t>Numpy</t>
   </si>
   <si>
-    <t>ErrorMessage</t>
+    <t>Invalid username and password Please try again</t>
   </si>
   <si>
     <t>Please enter your user name</t>
@@ -52,26 +61,46 @@
     <t>Please enter your password</t>
   </si>
   <si>
-    <t>Invalid username and password Please try again</t>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NumberOfClasses</t>
+  </si>
+  <si>
+    <t>Playwright</t>
+  </si>
+  <si>
+    <t>Playwright for begginners</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Upcoming batches</t>
   </si>
   <si>
     <t>sdetnumpyninja@gmail.com</t>
-  </si>
-  <si>
-    <t>LoginPage Fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -85,21 +114,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,32 +139,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,19 +176,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -215,116 +222,52 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -332,33 +275,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -371,13 +305,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -387,15 +315,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -403,7 +329,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -411,11 +336,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -427,193 +352,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A524769E-AB65-4C61-BA35-FACF285DADCC}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A83D2A2-FEC3-4A6E-A60A-A9A2DEAF8647}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.85" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.53125" customWidth="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E0805-4AFB-41C6-910A-B1CC679CDD0C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="26.06640625" customWidth="1"/>
+    <col min="4" max="4" width="16.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="31.15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48A60AC-02A3-455F-9ACE-9BB9216B67AA}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.53125" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" customWidth="1"/>
-    <col min="4" max="4" width="23.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534DECE3-F2BE-421A-8358-5D8A7B154D1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18.53125" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Team7-TestData.xlsx
+++ b/src/test/resources/TestData/Team7-TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f771015cb644ad2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f38d384201ac318/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{5913A8A9-60B2-44D1-8532-594681FEDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9F2B23-BDCF-4DDD-9285-9BBBFDAFA70B}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{5913A8A9-60B2-44D1-8532-594681FEDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053AB822-F375-418F-86CF-DC1A8F4EA03C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,19 @@
     <sheet name="NullPassword" sheetId="5" r:id="rId3"/>
     <sheet name="EditBatch" sheetId="3" r:id="rId4"/>
     <sheet name="NullUserNmae" sheetId="4" r:id="rId5"/>
+    <sheet name="Class" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>TestCase</t>
   </si>
@@ -89,13 +99,52 @@
   </si>
   <si>
     <t>sdetnumpyninja@gmail.com</t>
+  </si>
+  <si>
+    <t>scenarioName</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>classTopic</t>
+  </si>
+  <si>
+    <t>classDescription</t>
+  </si>
+  <si>
+    <t>noOfClasses</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>addClassWithOnlyMandatoryFields</t>
+  </si>
+  <si>
+    <t>Micro service-01</t>
+  </si>
+  <si>
+    <t>Dsalgo</t>
+  </si>
+  <si>
+    <t>Class Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +170,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,10 +201,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,9 +222,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5B8F1596-99D9-4890-83AB-533B415A4950}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,13 +427,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -395,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.4">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
@@ -417,12 +483,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -473,9 +539,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +582,10 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.85" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.53125" customWidth="1"/>
-    <col min="2" max="2" width="19.53125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -558,19 +624,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E0805-4AFB-41C6-910A-B1CC679CDD0C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" customWidth="1"/>
-    <col min="4" max="4" width="16.9296875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -594,6 +660,77 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFA3254-17C3-4238-8CE5-A5BBD62E162B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
